--- a/Data Test/signup.xlsx
+++ b/Data Test/signup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB81EF8-B0B7-464E-9675-AC91B4EC6A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F2883-CF0A-44E9-B989-FE979B5719B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>email</t>
   </si>
@@ -101,13 +101,16 @@
     <t>positive</t>
   </si>
   <si>
-    <t>archen1@gmail.com</t>
-  </si>
-  <si>
     <t>fullname</t>
   </si>
   <si>
     <t>Archie</t>
+  </si>
+  <si>
+    <t>sal1@gmail.com</t>
+  </si>
+  <si>
+    <t>Salsa123!</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -551,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -568,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -585,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -602,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -619,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -636,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -653,13 +656,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data Test/signup.xlsx
+++ b/Data Test/signup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F2883-CF0A-44E9-B989-FE979B5719B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169F0248-60B9-49EB-B0F0-C66DBAF87EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>email</t>
   </si>
@@ -71,18 +71,9 @@
     <t>iniarch@gmail.com</t>
   </si>
   <si>
-    <t>Arc123!</t>
-  </si>
-  <si>
     <t>archen123!</t>
   </si>
   <si>
-    <t>archen123</t>
-  </si>
-  <si>
-    <t>archens!</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -107,10 +98,40 @@
     <t>Archie</t>
   </si>
   <si>
-    <t>sal1@gmail.com</t>
-  </si>
-  <si>
-    <t>Salsa123!</t>
+    <t>Archenarchen123*</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Arc12!</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>03_Mobile/02_Auth/SC002_Sign Up/pwd_15_char</t>
+  </si>
+  <si>
+    <t>03_Mobile/02_Auth/SC002_Sign Up/pwd_validation</t>
+  </si>
+  <si>
+    <t>03_Mobile/02_Auth/SC002_Sign Up/email_already_taken</t>
+  </si>
+  <si>
+    <t>03_Mobile/02_Auth/SC002_Sign Up/success</t>
+  </si>
+  <si>
+    <t>Archen123</t>
+  </si>
+  <si>
+    <t>Archens!</t>
+  </si>
+  <si>
+    <t>Joong123!</t>
+  </si>
+  <si>
+    <t>joong3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -184,11 +205,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,21 +527,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1998F4-7F8C-44F3-A3CA-78F77B1A9AB7}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -534,8 +557,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -545,8 +571,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -554,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -562,8 +589,9 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -571,16 +599,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -588,94 +619,130 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{915551B6-7C38-469F-94D9-49BA5E2E6F26}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{A537A1BF-7131-4C82-8240-3E8F745FA5F4}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{C11B49A6-5A85-41B4-AF17-7F67131B3A30}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{DB699769-90B2-4092-BF89-77910214CBA5}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{9285753E-F990-46CE-8358-EDA597DA9B53}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{DB699769-90B2-4092-BF89-77910214CBA5}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{915551B6-7C38-469F-94D9-49BA5E2E6F26}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{A537A1BF-7131-4C82-8240-3E8F745FA5F4}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{C11B49A6-5A85-41B4-AF17-7F67131B3A30}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{9285753E-F990-46CE-8358-EDA597DA9B53}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{B5B24035-9465-447C-AC61-E03C75CF8E0B}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{0AF60757-BC7F-4407-A7FF-F748AD3C749C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Data Test/signup.xlsx
+++ b/Data Test/signup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169F0248-60B9-49EB-B0F0-C66DBAF87EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064AA7B-49B2-405C-91D5-83035487FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>Joong123!</t>
   </si>
   <si>
-    <t>joong3@gmail.com</t>
+    <t>joong7@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/Data Test/signup.xlsx
+++ b/Data Test/signup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064AA7B-49B2-405C-91D5-83035487FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81C97D-E6DD-404A-B834-20D06851A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>Joong123!</t>
   </si>
   <si>
-    <t>joong7@gmail.com</t>
+    <t>joong13@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/Data Test/signup.xlsx
+++ b/Data Test/signup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81C97D-E6DD-404A-B834-20D06851A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E8623-A006-462B-BF8A-C02A7894A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="2100" yWindow="1860" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -44,12 +44,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>arch-gmail</t>
-  </si>
-  <si>
-    <t>Archen123!</t>
-  </si>
-  <si>
     <t>tc-id</t>
   </si>
   <si>
@@ -68,12 +62,6 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>iniarch@gmail.com</t>
-  </si>
-  <si>
-    <t>archen123!</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -83,9 +71,6 @@
     <t>TC008</t>
   </si>
   <si>
-    <t>archen@gmail.com</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -95,18 +80,9 @@
     <t>fullname</t>
   </si>
   <si>
-    <t>Archie</t>
-  </si>
-  <si>
-    <t>Archenarchen123*</t>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
-    <t>Arc12!</t>
-  </si>
-  <si>
     <t>verify</t>
   </si>
   <si>
@@ -122,16 +98,34 @@
     <t>03_Mobile/02_Auth/SC002_Sign Up/success</t>
   </si>
   <si>
-    <t>Archen123</t>
-  </si>
-  <si>
-    <t>Archens!</t>
-  </si>
-  <si>
     <t>Joong123!</t>
   </si>
   <si>
-    <t>joong13@gmail.com</t>
+    <t>Joong A</t>
+  </si>
+  <si>
+    <t>joongarc@gmail.com</t>
+  </si>
+  <si>
+    <t>joongarc</t>
+  </si>
+  <si>
+    <t>Jng12!</t>
+  </si>
+  <si>
+    <t>joong123!</t>
+  </si>
+  <si>
+    <t>Joong123</t>
+  </si>
+  <si>
+    <t>Joongs#!</t>
+  </si>
+  <si>
+    <t>Joongjoong12345!</t>
+  </si>
+  <si>
+    <t>joong21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -535,21 +529,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -558,15 +553,15 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -575,174 +570,170 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{DB699769-90B2-4092-BF89-77910214CBA5}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{915551B6-7C38-469F-94D9-49BA5E2E6F26}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{A537A1BF-7131-4C82-8240-3E8F745FA5F4}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{C11B49A6-5A85-41B4-AF17-7F67131B3A30}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{9285753E-F990-46CE-8358-EDA597DA9B53}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{B5B24035-9465-447C-AC61-E03C75CF8E0B}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{0AF60757-BC7F-4407-A7FF-F748AD3C749C}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{B5B24035-9465-447C-AC61-E03C75CF8E0B}"/>
+    <hyperlink ref="D5:D9" r:id="rId3" display="joongarc@gmail.com" xr:uid="{AF6EB594-7B44-439F-96FA-552B2825EAEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>